--- a/data/trans_bre/P50_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-1,6</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-14,63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>20,12%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>42,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,38%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>30,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,26%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-30,32%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 16,19</t>
+          <t>-4,05; 15,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 18,25</t>
+          <t>-2,55; 17,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 19,42</t>
+          <t>-2,47; 19,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 12,03</t>
+          <t>-11,05; 10,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 12,23</t>
+          <t>-13,01; 11,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 73,45</t>
+          <t>-15,61; 11,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 125,66</t>
+          <t>-28,04; 0,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 103,29</t>
+          <t>-13,1; 66,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 76,85</t>
+          <t>-10,23; 118,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 37,54</t>
+          <t>-9,16; 95,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-36,2; 62,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-38,6; 63,62</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 32,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-49,86; 1,8</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,23</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-6,52%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-16,66%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-19,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-10,85%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 8,4</t>
+          <t>-14,28; 7,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 5,65</t>
+          <t>-21,17; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 10,86</t>
+          <t>-8,64; 10,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 4,74</t>
+          <t>-19,93; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 8,29</t>
+          <t>-8,27; 16,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 27,27</t>
+          <t>-16,72; 8,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 19,05</t>
+          <t>-18,46; 7,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 42,79</t>
+          <t>-31,13; 25,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 16,81</t>
+          <t>-46,17; 19,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 21,35</t>
+          <t>-24,34; 40,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-43,55; 8,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; 75,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 21,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 19,65</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,81</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-3,19%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-23,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>40,32%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>-21,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>41,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 7,61</t>
+          <t>-10,16; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 1,87</t>
+          <t>-15,67; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 17,38</t>
+          <t>3,72; 18,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 11,19</t>
+          <t>-5,64; 10,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 18,57</t>
+          <t>-5,84; 11,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 27,15</t>
+          <t>-1,64; 17,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 8,46</t>
+          <t>-1,0; 20,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 87,0</t>
+          <t>-26,02; 21,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 55,35</t>
+          <t>-43,31; 9,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 56,37</t>
+          <t>13,27; 91,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 53,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,59; 44,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 51,45</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 61,41</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 16,63</t>
+          <t>1,04; 16,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 10,57</t>
+          <t>-4,5; 11,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 11,37</t>
+          <t>-3,32; 12,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 14,32</t>
+          <t>0,95; 16,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,42</t>
+          <t>-4,53; 12,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 51,4</t>
+          <t>-10,09; 10,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 34,92</t>
+          <t>-6,85; 12,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 39,37</t>
+          <t>2,58; 51,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 50,49</t>
+          <t>-11,75; 40,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 22,13</t>
+          <t>-8,97; 47,25</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 59,31</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 42,58</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 22,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 26,78</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2,57</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,41%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>4,88%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 19,1</t>
+          <t>0,27; 18,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 14,27</t>
+          <t>-4,56; 13,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 12,21</t>
+          <t>-4,73; 12,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 14,36</t>
+          <t>-4,51; 12,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 13,22</t>
+          <t>-5,22; 15,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 71,17</t>
+          <t>-7,1; 12,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 56,82</t>
+          <t>-1,55; 17,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 44,63</t>
+          <t>-0,91; 67,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 48,91</t>
+          <t>-13,86; 52,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 28,79</t>
+          <t>-12,98; 46,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 45,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 48,07</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 27,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 38,44</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>-9,16%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 14,06</t>
+          <t>-4,88; 14,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 17,57</t>
+          <t>-1,12; 18,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 6,28</t>
+          <t>-14,03; 6,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 14,64</t>
+          <t>-4,06; 16,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 14,64</t>
+          <t>1,5; 24,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 47,94</t>
+          <t>-10,6; 14,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 84,82</t>
+          <t>-5,06; 19,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 23,17</t>
+          <t>-13,23; 47,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 72,1</t>
+          <t>-4,09; 87,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 46,81</t>
+          <t>-35,5; 20,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 78,77</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 129,11</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-25,24; 49,99</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 48,82</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>12,36%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,11</t>
+          <t>0,33; 8,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,58</t>
+          <t>-2,8; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,95</t>
+          <t>0,46; 8,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,84</t>
+          <t>-1,55; 6,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,52</t>
+          <t>0,32; 9,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 25,53</t>
+          <t>-4,02; 5,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 20,3</t>
+          <t>-2,19; 7,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 28,64</t>
+          <t>0,99; 26,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 25,58</t>
+          <t>-8,67; 20,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 12,96</t>
+          <t>1,09; 28,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 23,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 33,77</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 13,27</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 16,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
